--- a/referencia.xlsx
+++ b/referencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooli\Desktop\Micro\Clima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E684BE25-A199-4486-BBEA-4DDFA4A8C36C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD58383C-2237-4F53-AB6C-C8768BF80162}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{F121F107-404B-4072-B584-9B62305D6FEC}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
   <si>
     <t>Column1</t>
   </si>
@@ -649,6 +649,33 @@
   </si>
   <si>
     <t>Sat Nov 17 14:49:59 2018</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Suma cuadrados</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>xy1</t>
+  </si>
+  <si>
+    <t>xy2</t>
+  </si>
+  <si>
+    <t>xy3</t>
   </si>
 </sst>
 </file>
@@ -691,7 +718,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1173,295 +1215,295 @@
                   <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>87300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>88200</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89100</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>90000</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>90900</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>91800</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>92700</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>93600</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>94500</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>95400</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>96300</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>97200</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>98100</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>99000</c:v>
+                  <c:v>11700</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>99900</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>100800</c:v>
+                  <c:v>13500</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>101700</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>102600</c:v>
+                  <c:v>15300</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>103500</c:v>
+                  <c:v>16200</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>104400</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>105300</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>106200</c:v>
+                  <c:v>18900</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>107100</c:v>
+                  <c:v>19800</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>108000</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108900</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>109800</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>110700</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>111600</c:v>
+                  <c:v>24300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>112500</c:v>
+                  <c:v>25200</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>113400</c:v>
+                  <c:v>26100</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>114300</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>115200</c:v>
+                  <c:v>27900</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>116100</c:v>
+                  <c:v>28800</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>117000</c:v>
+                  <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>117900</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>118800</c:v>
+                  <c:v>31500</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>119700</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>120600</c:v>
+                  <c:v>33300</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>121500</c:v>
+                  <c:v>34200</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>122400</c:v>
+                  <c:v>35100</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>123300</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>124200</c:v>
+                  <c:v>36900</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>125100</c:v>
+                  <c:v>37800</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>126000</c:v>
+                  <c:v>38700</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>126900</c:v>
+                  <c:v>39600</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>127800</c:v>
+                  <c:v>40500</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>128700</c:v>
+                  <c:v>41400</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>129600</c:v>
+                  <c:v>42300</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>130500</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>131400</c:v>
+                  <c:v>44100</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>132300</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>133200</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>134100</c:v>
+                  <c:v>46800</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>135000</c:v>
+                  <c:v>47700</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>135900</c:v>
+                  <c:v>48600</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>136800</c:v>
+                  <c:v>49500</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>137700</c:v>
+                  <c:v>50400</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>138600</c:v>
+                  <c:v>51300</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>139500</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>140400</c:v>
+                  <c:v>53100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>141300</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>142200</c:v>
+                  <c:v>54900</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>143100</c:v>
+                  <c:v>55800</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>144000</c:v>
+                  <c:v>56700</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>144900</c:v>
+                  <c:v>57600</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>145800</c:v>
+                  <c:v>58500</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>146700</c:v>
+                  <c:v>59400</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>147600</c:v>
+                  <c:v>60300</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>148500</c:v>
+                  <c:v>61200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>149400</c:v>
+                  <c:v>62100</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>150300</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>151200</c:v>
+                  <c:v>63900</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>152100</c:v>
+                  <c:v>64800</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>153000</c:v>
+                  <c:v>65700</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>153900</c:v>
+                  <c:v>66600</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>154800</c:v>
+                  <c:v>67500</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>155700</c:v>
+                  <c:v>68400</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>156600</c:v>
+                  <c:v>69300</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>157500</c:v>
+                  <c:v>70200</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>158400</c:v>
+                  <c:v>71100</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>159300</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>160200</c:v>
+                  <c:v>72900</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>161100</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>162000</c:v>
+                  <c:v>74700</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>162900</c:v>
+                  <c:v>75600</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>163800</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>164700</c:v>
+                  <c:v>77400</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>165600</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>166500</c:v>
+                  <c:v>79200</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>167400</c:v>
+                  <c:v>80100</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>168300</c:v>
+                  <c:v>81000</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>169200</c:v>
+                  <c:v>81900</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>170100</c:v>
+                  <c:v>82800</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>171000</c:v>
+                  <c:v>83700</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>171900</c:v>
+                  <c:v>84600</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>172800</c:v>
+                  <c:v>85500</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>173700</c:v>
+                  <c:v>86400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,295 +2749,295 @@
                   <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>87300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>88200</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89100</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>90000</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>90900</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>91800</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>92700</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>93600</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>94500</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>95400</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>96300</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>97200</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>98100</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>99000</c:v>
+                  <c:v>11700</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>99900</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>100800</c:v>
+                  <c:v>13500</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>101700</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>102600</c:v>
+                  <c:v>15300</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>103500</c:v>
+                  <c:v>16200</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>104400</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>105300</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>106200</c:v>
+                  <c:v>18900</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>107100</c:v>
+                  <c:v>19800</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>108000</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108900</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>109800</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>110700</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>111600</c:v>
+                  <c:v>24300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>112500</c:v>
+                  <c:v>25200</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>113400</c:v>
+                  <c:v>26100</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>114300</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>115200</c:v>
+                  <c:v>27900</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>116100</c:v>
+                  <c:v>28800</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>117000</c:v>
+                  <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>117900</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>118800</c:v>
+                  <c:v>31500</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>119700</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>120600</c:v>
+                  <c:v>33300</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>121500</c:v>
+                  <c:v>34200</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>122400</c:v>
+                  <c:v>35100</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>123300</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>124200</c:v>
+                  <c:v>36900</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>125100</c:v>
+                  <c:v>37800</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>126000</c:v>
+                  <c:v>38700</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>126900</c:v>
+                  <c:v>39600</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>127800</c:v>
+                  <c:v>40500</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>128700</c:v>
+                  <c:v>41400</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>129600</c:v>
+                  <c:v>42300</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>130500</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>131400</c:v>
+                  <c:v>44100</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>132300</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>133200</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>134100</c:v>
+                  <c:v>46800</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>135000</c:v>
+                  <c:v>47700</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>135900</c:v>
+                  <c:v>48600</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>136800</c:v>
+                  <c:v>49500</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>137700</c:v>
+                  <c:v>50400</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>138600</c:v>
+                  <c:v>51300</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>139500</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>140400</c:v>
+                  <c:v>53100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>141300</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>142200</c:v>
+                  <c:v>54900</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>143100</c:v>
+                  <c:v>55800</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>144000</c:v>
+                  <c:v>56700</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>144900</c:v>
+                  <c:v>57600</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>145800</c:v>
+                  <c:v>58500</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>146700</c:v>
+                  <c:v>59400</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>147600</c:v>
+                  <c:v>60300</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>148500</c:v>
+                  <c:v>61200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>149400</c:v>
+                  <c:v>62100</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>150300</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>151200</c:v>
+                  <c:v>63900</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>152100</c:v>
+                  <c:v>64800</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>153000</c:v>
+                  <c:v>65700</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>153900</c:v>
+                  <c:v>66600</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>154800</c:v>
+                  <c:v>67500</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>155700</c:v>
+                  <c:v>68400</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>156600</c:v>
+                  <c:v>69300</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>157500</c:v>
+                  <c:v>70200</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>158400</c:v>
+                  <c:v>71100</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>159300</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>160200</c:v>
+                  <c:v>72900</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>161100</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>162000</c:v>
+                  <c:v>74700</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>162900</c:v>
+                  <c:v>75600</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>163800</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>164700</c:v>
+                  <c:v>77400</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>165600</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>166500</c:v>
+                  <c:v>79200</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>167400</c:v>
+                  <c:v>80100</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>168300</c:v>
+                  <c:v>81000</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>169200</c:v>
+                  <c:v>81900</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>170100</c:v>
+                  <c:v>82800</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>171000</c:v>
+                  <c:v>83700</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>171900</c:v>
+                  <c:v>84600</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>172800</c:v>
+                  <c:v>85500</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>173700</c:v>
+                  <c:v>86400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,295 +4289,295 @@
                   <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>87300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>88200</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89100</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>90000</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>90900</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>91800</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>92700</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>93600</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>94500</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>95400</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>96300</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>97200</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>98100</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>99000</c:v>
+                  <c:v>11700</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>99900</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>100800</c:v>
+                  <c:v>13500</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>101700</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>102600</c:v>
+                  <c:v>15300</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>103500</c:v>
+                  <c:v>16200</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>104400</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>105300</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>106200</c:v>
+                  <c:v>18900</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>107100</c:v>
+                  <c:v>19800</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>108000</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108900</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>109800</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>110700</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>111600</c:v>
+                  <c:v>24300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>112500</c:v>
+                  <c:v>25200</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>113400</c:v>
+                  <c:v>26100</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>114300</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>115200</c:v>
+                  <c:v>27900</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>116100</c:v>
+                  <c:v>28800</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>117000</c:v>
+                  <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>117900</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>118800</c:v>
+                  <c:v>31500</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>119700</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>120600</c:v>
+                  <c:v>33300</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>121500</c:v>
+                  <c:v>34200</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>122400</c:v>
+                  <c:v>35100</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>123300</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>124200</c:v>
+                  <c:v>36900</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>125100</c:v>
+                  <c:v>37800</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>126000</c:v>
+                  <c:v>38700</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>126900</c:v>
+                  <c:v>39600</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>127800</c:v>
+                  <c:v>40500</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>128700</c:v>
+                  <c:v>41400</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>129600</c:v>
+                  <c:v>42300</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>130500</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>131400</c:v>
+                  <c:v>44100</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>132300</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>133200</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>134100</c:v>
+                  <c:v>46800</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>135000</c:v>
+                  <c:v>47700</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>135900</c:v>
+                  <c:v>48600</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>136800</c:v>
+                  <c:v>49500</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>137700</c:v>
+                  <c:v>50400</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>138600</c:v>
+                  <c:v>51300</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>139500</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>140400</c:v>
+                  <c:v>53100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>141300</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>142200</c:v>
+                  <c:v>54900</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>143100</c:v>
+                  <c:v>55800</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>144000</c:v>
+                  <c:v>56700</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>144900</c:v>
+                  <c:v>57600</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>145800</c:v>
+                  <c:v>58500</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>146700</c:v>
+                  <c:v>59400</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>147600</c:v>
+                  <c:v>60300</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>148500</c:v>
+                  <c:v>61200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>149400</c:v>
+                  <c:v>62100</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>150300</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>151200</c:v>
+                  <c:v>63900</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>152100</c:v>
+                  <c:v>64800</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>153000</c:v>
+                  <c:v>65700</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>153900</c:v>
+                  <c:v>66600</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>154800</c:v>
+                  <c:v>67500</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>155700</c:v>
+                  <c:v>68400</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>156600</c:v>
+                  <c:v>69300</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>157500</c:v>
+                  <c:v>70200</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>158400</c:v>
+                  <c:v>71100</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>159300</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>160200</c:v>
+                  <c:v>72900</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>161100</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>162000</c:v>
+                  <c:v>74700</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>162900</c:v>
+                  <c:v>75600</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>163800</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>164700</c:v>
+                  <c:v>77400</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>165600</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>166500</c:v>
+                  <c:v>79200</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>167400</c:v>
+                  <c:v>80100</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>168300</c:v>
+                  <c:v>81000</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>169200</c:v>
+                  <c:v>81900</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>170100</c:v>
+                  <c:v>82800</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>171000</c:v>
+                  <c:v>83700</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>171900</c:v>
+                  <c:v>84600</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>172800</c:v>
+                  <c:v>85500</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>173700</c:v>
+                  <c:v>86400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,16 +6955,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6949,16 +6991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6987,16 +7029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7028,14 +7070,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{B5DA507A-F197-4E22-81BA-50DA16588D57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="1">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="5">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -7056,15 +7102,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{796888B9-774E-498A-8E9B-9B07EA30FFF2}" name="_dia1" displayName="_dia1" ref="A1:F195" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F195" xr:uid="{561CFE12-6672-4A0B-A7F5-571A6CFD7CDE}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B5A31809-063C-4351-A6E7-5075579EF9C6}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F8BF7460-C539-4A27-A7AA-C4E38C5259FD}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{40385B29-0BCE-487C-98D4-AB79786143EA}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{796888B9-774E-498A-8E9B-9B07EA30FFF2}" name="_dia1" displayName="_dia1" ref="A1:J196" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:J195" xr:uid="{561CFE12-6672-4A0B-A7F5-571A6CFD7CDE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B5A31809-063C-4351-A6E7-5075579EF9C6}" uniqueName="1" name="Column1" totalsRowFunction="sum" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{F8BF7460-C539-4A27-A7AA-C4E38C5259FD}" uniqueName="2" name="Column2" totalsRowFunction="sum" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{40385B29-0BCE-487C-98D4-AB79786143EA}" uniqueName="3" name="Column3" totalsRowFunction="sum" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{623695DF-90E8-4638-988D-F32B89973C24}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{823A7329-9958-45E1-9172-AD71D93731CD}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00E9B548-326E-4FFF-88BA-EE3238D9F1F5}" uniqueName="6" name="Column6" queryTableFieldId="6"/>
+    <tableColumn id="5" xr3:uid="{823A7329-9958-45E1-9172-AD71D93731CD}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00E9B548-326E-4FFF-88BA-EE3238D9F1F5}" uniqueName="6" name="Column6" totalsRowFunction="sum" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{0436811D-228E-4541-ABBF-2BB8961DE66A}" uniqueName="7" name="Column7" totalsRowFunction="sum" queryTableFieldId="7" dataDxfId="3">
+      <calculatedColumnFormula>F2*F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3337C066-8E73-4798-BC31-9B937D707FD7}" uniqueName="8" name="Column8" totalsRowFunction="sum" queryTableFieldId="8" dataDxfId="2">
+      <calculatedColumnFormula>F2*B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F0C76C3D-2943-4897-8BE0-55A3FE744C0D}" uniqueName="9" name="Column9" totalsRowFunction="sum" queryTableFieldId="9" dataDxfId="1">
+      <calculatedColumnFormula>F2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{62E76000-1E79-41F9-9E04-3AA968FF1BE7}" uniqueName="10" name="Column10" totalsRowFunction="sum" queryTableFieldId="10" dataDxfId="0">
+      <calculatedColumnFormula>F2*D2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7078,7 +7136,7 @@
     <tableColumn id="2" xr3:uid="{543C905E-3BD7-4972-9BBE-A635DEB5C1E7}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2F0526A3-DF80-45E2-9AD0-C797D0E4AB7B}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{3E36F4D6-37D1-4821-B53B-82D75EAE5AFA}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{77234146-550C-43A4-97BD-803DAE177DC3}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{77234146-550C-43A4-97BD-803DAE177DC3}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7381,19 +7439,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E0ECA-9CFD-439B-81B6-4ED853483F06}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90:F195"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7412,8 +7471,20 @@
       <c r="F1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>79.700199999999995</v>
       </c>
@@ -7432,8 +7503,24 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="0">F2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I33" si="1">F2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:J33" si="2">F2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J33" si="3">F2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>78.728499999999997</v>
       </c>
@@ -7452,8 +7539,24 @@
       <c r="F3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>810000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>734219.1</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>17136</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="3"/>
+        <v>1610343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>75.311499999999995</v>
       </c>
@@ -7472,8 +7575,24 @@
       <c r="F4">
         <v>1800</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3240000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1468463.4</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>34452</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>3220434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>75.577100000000002</v>
       </c>
@@ -7492,8 +7611,24 @@
       <c r="F5">
         <v>2700</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7290000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2202859.8000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>52218</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>4829004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>75.415999999999997</v>
       </c>
@@ -7512,8 +7647,24 @@
       <c r="F6">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>12960000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2936710.8000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>69948</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>6442992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>73.559600000000003</v>
       </c>
@@ -7532,8 +7683,24 @@
       <c r="F7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20250000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3670744.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>87840</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>8055180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>73.311499999999995</v>
       </c>
@@ -7552,8 +7719,24 @@
       <c r="F8">
         <v>5400</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>29160000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4405201.2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>105624</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>9663138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>73.691400000000002</v>
       </c>
@@ -7572,8 +7755,24 @@
       <c r="F9">
         <v>6300</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>39690000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5140037.7</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>123353.99999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>11267361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74.391599999999997</v>
       </c>
@@ -7592,8 +7791,24 @@
       <c r="F10">
         <v>7200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>51840000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>5874969.5999999996</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>140832</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>12870576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>73.967799999999997</v>
       </c>
@@ -7612,8 +7827,24 @@
       <c r="F11">
         <v>8100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>65610000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6610223.7000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>158436</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>14470731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>73.441400000000002</v>
       </c>
@@ -7632,8 +7863,24 @@
       <c r="F12">
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>81000000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>7345197</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>175860</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>16073550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>73.366200000000006</v>
       </c>
@@ -7652,8 +7899,24 @@
       <c r="F13">
         <v>9900</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>98010000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>8080954.2000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>192950.99999999997</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>17668629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>71.518600000000006</v>
       </c>
@@ -7672,8 +7935,24 @@
       <c r="F14">
         <v>10800</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>116640000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>8815921.1999999993</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>209844</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>19271520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>71.987300000000005</v>
       </c>
@@ -7692,8 +7971,24 @@
       <c r="F15">
         <v>11700</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>136890000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>9551213.0999999996</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>227331</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>20871162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>73.734399999999994</v>
       </c>
@@ -7712,8 +8007,24 @@
       <c r="F16">
         <v>12600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>158760000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>10287408.6</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>245700</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>22462020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>73.820300000000003</v>
       </c>
@@ -7732,8 +8043,24 @@
       <c r="F17">
         <v>13500</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>182250000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>11024019</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>263790</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>24048630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>74.859399999999994</v>
       </c>
@@ -7752,8 +8079,24 @@
       <c r="F18">
         <v>14400</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>207360000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>11762020.800000001</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>280800</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>25621344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>74.824200000000005</v>
       </c>
@@ -7772,8 +8115,24 @@
       <c r="F19">
         <v>15300</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>234090000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>12500375.4</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>298197</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>27190701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>75.147499999999994</v>
       </c>
@@ -7792,8 +8151,24 @@
       <c r="F20">
         <v>16200</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>262440000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>13238332.200000001</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>315738</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>28764072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>75.604500000000002</v>
       </c>
@@ -7812,8 +8187,24 @@
       <c r="F21">
         <v>17100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>292410000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>13978651.5</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>333450</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>30313854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>74.570300000000003</v>
       </c>
@@ -7832,8 +8223,24 @@
       <c r="F22">
         <v>18000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>324000000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>14716656</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>349740</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>31886820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>74.790999999999997</v>
       </c>
@@ -7852,8 +8259,24 @@
       <c r="F23">
         <v>18900</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>357210000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>15454983.600000001</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>365904</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>33456402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>74.8994</v>
       </c>
@@ -7872,8 +8295,24 @@
       <c r="F24">
         <v>19800</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>392040000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>16195271.4</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>382932</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>35006598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>74.959999999999994</v>
       </c>
@@ -7892,8 +8331,24 @@
       <c r="F25">
         <v>20700</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>428490000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>16930902.600000001</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>399510</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>36602982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>74.9512</v>
       </c>
@@ -7912,8 +8367,24 @@
       <c r="F26">
         <v>21600</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>466560000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>17674286.400000002</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>415800</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>38122488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>75.081100000000006</v>
       </c>
@@ -7932,8 +8403,24 @@
       <c r="F27">
         <v>22500</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>506250000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>18411952.5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>432675</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>39698550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>75.1387</v>
       </c>
@@ -7952,8 +8439,24 @@
       <c r="F28">
         <v>23400</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>547560000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>19146933</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>448812</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>41301468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>75.265600000000006</v>
       </c>
@@ -7972,8 +8475,24 @@
       <c r="F29">
         <v>24300</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>590490000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>19884058.199999999</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>465102</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>42882939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>75.5488</v>
       </c>
@@ -7992,8 +8511,24 @@
       <c r="F30">
         <v>25200</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>635040000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>20623982.400000002</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>481320.00000000006</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>44436672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>75.455100000000002</v>
       </c>
@@ -8012,8 +8547,24 @@
       <c r="F31">
         <v>26100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>681210000</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>21356899.200000003</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>497727</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
+        <v>46060236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>75.493200000000002</v>
       </c>
@@ -8032,8 +8583,24 @@
       <c r="F32">
         <v>27000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>729000000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>22093587</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>513810.00000000006</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="3"/>
+        <v>47646090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>76.123999999999995</v>
       </c>
@@ -8052,8 +8619,24 @@
       <c r="F33">
         <v>27900</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>778410000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>22827975.300000001</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>530658</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>49254660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>75.784199999999998</v>
       </c>
@@ -8072,8 +8655,24 @@
       <c r="F34">
         <v>28800</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" ref="G34:G65" si="4">F34*F34</f>
+        <v>829440000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H65" si="5">F34*B34</f>
+        <v>23563065.600000001</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I65" si="6">F34*C34</f>
+        <v>546624</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" ref="J34:J65" si="7">F34*D34</f>
+        <v>50856480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>75.505899999999997</v>
       </c>
@@ -8092,8 +8691,24 @@
       <c r="F35">
         <v>29700</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>882090000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>24300005.400000002</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="6"/>
+        <v>563706</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="7"/>
+        <v>52439508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>75.728499999999997</v>
       </c>
@@ -8112,8 +8727,24 @@
       <c r="F36">
         <v>30600</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>936360000</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>25032024</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="6"/>
+        <v>580482</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="7"/>
+        <v>54071730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>75.589799999999997</v>
       </c>
@@ -8132,8 +8763,24 @@
       <c r="F37">
         <v>31500</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>992250000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>25764700.5</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="6"/>
+        <v>596925</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="7"/>
+        <v>55697355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>75.501999999999995</v>
       </c>
@@ -8152,8 +8799,24 @@
       <c r="F38">
         <v>32400</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>1049760000</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>26495877.600000001</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="6"/>
+        <v>612036</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="7"/>
+        <v>57337632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>75.373999999999995</v>
       </c>
@@ -8172,8 +8835,24 @@
       <c r="F39">
         <v>33300</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>1108890000</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>27224947.800000001</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="6"/>
+        <v>628038</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="7"/>
+        <v>58999275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>75.525400000000005</v>
       </c>
@@ -8192,8 +8871,24 @@
       <c r="F40">
         <v>34200</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>1169640000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>27950394.600000001</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="6"/>
+        <v>643985.99999999988</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="7"/>
+        <v>60696450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>75.568399999999997</v>
       </c>
@@ -8212,8 +8907,24 @@
       <c r="F41">
         <v>35100</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>1232010000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>28682596.800000001</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="6"/>
+        <v>660582</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="7"/>
+        <v>62326368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>75.494100000000003</v>
       </c>
@@ -8232,8 +8943,24 @@
       <c r="F42">
         <v>36000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>1296000000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>29412072</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="6"/>
+        <v>676080</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="7"/>
+        <v>63984240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>75.7744</v>
       </c>
@@ -8252,8 +8979,24 @@
       <c r="F43">
         <v>36900</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>1361610000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>30143204.100000001</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="6"/>
+        <v>691137</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="7"/>
+        <v>65624805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>75.939499999999995</v>
       </c>
@@ -8272,8 +9015,24 @@
       <c r="F44">
         <v>37800</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>1428840000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>30879198</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="6"/>
+        <v>707994</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="7"/>
+        <v>67217850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>76.001999999999995</v>
       </c>
@@ -8292,8 +9051,24 @@
       <c r="F45">
         <v>38700</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>1497690000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>31605825.599999998</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="6"/>
+        <v>723690</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="7"/>
+        <v>68903028</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>76.2012</v>
       </c>
@@ -8312,8 +9087,24 @@
       <c r="F46">
         <v>39600</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>1568160000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>32343814.800000001</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="6"/>
+        <v>740124</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="7"/>
+        <v>70476120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>76.2744</v>
       </c>
@@ -8332,8 +9123,24 @@
       <c r="F47">
         <v>40500</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1640250000</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>33064159.5</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="6"/>
+        <v>755730</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>72224055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>76.377899999999997</v>
       </c>
@@ -8352,8 +9159,24 @@
       <c r="F48">
         <v>41400</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>1713960000</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>33790059</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="6"/>
+        <v>770868</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
+        <v>73917216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>76.417000000000002</v>
       </c>
@@ -8372,8 +9195,24 @@
       <c r="F49">
         <v>42300</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>1789290000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>34515234.899999999</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="6"/>
+        <v>786780.00000000012</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>75617172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>76.347700000000003</v>
       </c>
@@ -8392,8 +9231,24 @@
       <c r="F50">
         <v>43200</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>1866240000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>35246145.600000001</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>802655.99999999988</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="7"/>
+        <v>77260176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>76.762699999999995</v>
       </c>
@@ -8412,8 +9267,24 @@
       <c r="F51">
         <v>44100</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>1944810000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>35976956.399999999</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="6"/>
+        <v>817614</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="7"/>
+        <v>78904602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76.685500000000005</v>
       </c>
@@ -8432,8 +9303,24 @@
       <c r="F52">
         <v>45000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>2025000000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>36711180</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="6"/>
+        <v>834300</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="7"/>
+        <v>80514900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>76.858400000000003</v>
       </c>
@@ -8452,8 +9339,24 @@
       <c r="F53">
         <v>45900</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>2106810000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>37443888.899999999</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="6"/>
+        <v>849609.00000000012</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>82139886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>76.942400000000006</v>
       </c>
@@ -8472,8 +9375,24 @@
       <c r="F54">
         <v>46800</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>2190240000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>38177568</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="6"/>
+        <v>864864</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="7"/>
+        <v>83755620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>77.102500000000006</v>
       </c>
@@ -8492,8 +9411,24 @@
       <c r="F55">
         <v>47700</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>2275290000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>38909605.5</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="6"/>
+        <v>880065</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="7"/>
+        <v>85387770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>76.980500000000006</v>
       </c>
@@ -8512,8 +9447,24 @@
       <c r="F56">
         <v>48600</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>2361960000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>39650018.400000006</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="6"/>
+        <v>896184.00000000012</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="7"/>
+        <v>86936652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>77.110399999999998</v>
       </c>
@@ -8532,8 +9483,24 @@
       <c r="F57">
         <v>49500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>2450250000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>40380615</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="6"/>
+        <v>912285</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="7"/>
+        <v>88582725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>77.171899999999994</v>
       </c>
@@ -8552,8 +9519,24 @@
       <c r="F58">
         <v>50400</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>2540160000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>41110120.800000004</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="6"/>
+        <v>927359.99999999988</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="7"/>
+        <v>90239688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>76.968800000000002</v>
       </c>
@@ -8572,8 +9555,24 @@
       <c r="F59">
         <v>51300</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>2631690000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>41846333.399999999</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="6"/>
+        <v>943407</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="7"/>
+        <v>91830078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>77.011700000000005</v>
       </c>
@@ -8592,8 +9591,24 @@
       <c r="F60">
         <v>52200</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>2724840000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>42587944.200000003</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="6"/>
+        <v>958914</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="7"/>
+        <v>93367008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>77.195300000000003</v>
       </c>
@@ -8612,8 +9627,24 @@
       <c r="F61">
         <v>53100</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>2819610000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>43340697.899999999</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="6"/>
+        <v>973854</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="7"/>
+        <v>94794120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>77.277299999999997</v>
       </c>
@@ -8632,8 +9663,24 @@
       <c r="F62">
         <v>54000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>2916000000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>44071344</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="6"/>
+        <v>988739.99999999988</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="7"/>
+        <v>96439680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>77.080100000000002</v>
       </c>
@@ -8652,8 +9699,24 @@
       <c r="F63">
         <v>54900</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>3014010000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>44807733</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="6"/>
+        <v>1005218.9999999999</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="7"/>
+        <v>98028891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>77.097700000000003</v>
       </c>
@@ -8672,8 +9735,24 @@
       <c r="F64">
         <v>55800</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>3113640000</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>45544629.600000001</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="6"/>
+        <v>1020024.0000000001</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="7"/>
+        <v>99611928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>77.113299999999995</v>
       </c>
@@ -8692,8 +9771,24 @@
       <c r="F65">
         <v>56700</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>3214890000</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>46293565.5</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="6"/>
+        <v>1034775</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="7"/>
+        <v>101076822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>77.035200000000003</v>
       </c>
@@ -8712,8 +9807,24 @@
       <c r="F66">
         <v>57600</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <f t="shared" ref="G66:G97" si="8">F66*F66</f>
+        <v>3317760000</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H97" si="9">F66*B66</f>
+        <v>47042784</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I97" si="10">F66*C66</f>
+        <v>1051200</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" ref="J66:J97" si="11">F66*D66</f>
+        <v>102538368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>77.169899999999998</v>
       </c>
@@ -8732,8 +9843,24 @@
       <c r="F67">
         <v>58500</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>3422250000</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>47782975.5</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="10"/>
+        <v>1068210</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="11"/>
+        <v>104089635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>77.174800000000005</v>
       </c>
@@ -8752,8 +9879,24 @@
       <c r="F68">
         <v>59400</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>3528360000</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>48521840.399999999</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="10"/>
+        <v>1082268</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="11"/>
+        <v>105653592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>77.464799999999997</v>
       </c>
@@ -8772,8 +9915,24 @@
       <c r="F69">
         <v>60300</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>3636090000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>49264316.100000001</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="10"/>
+        <v>1099269</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="11"/>
+        <v>107182044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>77.431600000000003</v>
       </c>
@@ -8792,8 +9951,24 @@
       <c r="F70">
         <v>61200</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>3745440000</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>50004561.600000001</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="10"/>
+        <v>1115676</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="11"/>
+        <v>108732816</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>77.491200000000006</v>
       </c>
@@ -8812,8 +9987,24 @@
       <c r="F71">
         <v>62100</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>3856410000</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>50747250.600000001</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="10"/>
+        <v>1130220</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="11"/>
+        <v>110259171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>77.503900000000002</v>
       </c>
@@ -8832,8 +10023,24 @@
       <c r="F72">
         <v>63000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>3969000000</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>51493365</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="10"/>
+        <v>1146600</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="11"/>
+        <v>111751920</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>77.623000000000005</v>
       </c>
@@ -8852,8 +10059,24 @@
       <c r="F73">
         <v>63900</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>4083210000</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>52232499</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="10"/>
+        <v>1161702</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="11"/>
+        <v>113313231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>77.6738</v>
       </c>
@@ -8872,8 +10095,24 @@
       <c r="F74">
         <v>64800</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>4199040000</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>52971537.600000001</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="10"/>
+        <v>1180656</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="11"/>
+        <v>114876144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>78.030299999999997</v>
       </c>
@@ -8892,8 +10131,24 @@
       <c r="F75">
         <v>65700</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>4316490000</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>53724072.599999994</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="10"/>
+        <v>1197711</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="11"/>
+        <v>116304768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>78.4756</v>
       </c>
@@ -8912,8 +10167,24 @@
       <c r="F76">
         <v>66600</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>4435560000</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>54455490</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="10"/>
+        <v>1214784</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="11"/>
+        <v>117942606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>78.858400000000003</v>
       </c>
@@ -8932,8 +10203,24 @@
       <c r="F77">
         <v>67500</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>4556250000</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>55190362.5</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="10"/>
+        <v>1233225</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="11"/>
+        <v>119546550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78.9619</v>
       </c>
@@ -8952,8 +10239,24 @@
       <c r="F78">
         <v>68400</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>4678560000</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>55931706</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="10"/>
+        <v>1251036</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="11"/>
+        <v>121086468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78.251000000000005</v>
       </c>
@@ -8972,8 +10275,24 @@
       <c r="F79">
         <v>69300</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>4802490000</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>56669035.5</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="10"/>
+        <v>1267497</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="11"/>
+        <v>122665851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77.697299999999998</v>
       </c>
@@ -8992,8 +10311,24 @@
       <c r="F80">
         <v>70200</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>4928040000</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>57404014.200000003</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="10"/>
+        <v>1284660</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="11"/>
+        <v>124268742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>77.7119</v>
       </c>
@@ -9012,8 +10347,24 @@
       <c r="F81">
         <v>71100</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>5055210000</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>58127876.100000001</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="10"/>
+        <v>1301841</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="11"/>
+        <v>125981379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>76.835899999999995</v>
       </c>
@@ -9032,8 +10383,24 @@
       <c r="F82">
         <v>72000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>5184000000</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>58848047.999999993</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="10"/>
+        <v>1318320</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="11"/>
+        <v>127730880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>77.1494</v>
       </c>
@@ -9052,8 +10419,24 @@
       <c r="F83">
         <v>72900</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>5314410000</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>59574171.599999994</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="10"/>
+        <v>1336986</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="11"/>
+        <v>129421557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>78.106399999999994</v>
       </c>
@@ -9072,8 +10455,24 @@
       <c r="F84">
         <v>73800</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>5446440000</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>60292607.399999999</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="10"/>
+        <v>1354230</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="11"/>
+        <v>131188355.99999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>78.919899999999998</v>
       </c>
@@ -9092,8 +10491,24 @@
       <c r="F85">
         <v>74700</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>5580090000</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>61025791.500000007</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="10"/>
+        <v>1372239</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="11"/>
+        <v>132809130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>78.854500000000002</v>
       </c>
@@ -9112,8 +10527,24 @@
       <c r="F86">
         <v>75600</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>5715360000</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>61741990.799999997</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="10"/>
+        <v>1390284</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="11"/>
+        <v>134597484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>78.531199999999998</v>
       </c>
@@ -9132,8 +10563,24 @@
       <c r="F87">
         <v>76500</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>5852250000</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>62465463</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="10"/>
+        <v>1410660</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="11"/>
+        <v>136315350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>78.935500000000005</v>
       </c>
@@ -9152,8 +10599,24 @@
       <c r="F88">
         <v>77400</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>5990760000</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>63192301.199999996</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="10"/>
+        <v>1428804</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="11"/>
+        <v>137998008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>78.917000000000002</v>
       </c>
@@ -9172,8 +10635,24 @@
       <c r="F89">
         <v>78300</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>6130890000</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>63914802.299999997</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="10"/>
+        <v>1447766.9999999998</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="11"/>
+        <v>139724784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>78.359399999999994</v>
       </c>
@@ -9192,8 +10671,24 @@
       <c r="F90">
         <v>79200</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>6272640000</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>64632110.399999999</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="10"/>
+        <v>1467576</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="11"/>
+        <v>141503472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>79.184600000000003</v>
       </c>
@@ -9212,8 +10707,24 @@
       <c r="F91">
         <v>80100</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>6416010000</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>65357915.399999999</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="10"/>
+        <v>1501073.9999999998</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="11"/>
+        <v>143197173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>78.886700000000005</v>
       </c>
@@ -9232,8 +10743,24 @@
       <c r="F92">
         <v>81000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>6561000000</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>66073725</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="10"/>
+        <v>1524420</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="11"/>
+        <v>144989190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>78.615200000000002</v>
       </c>
@@ -9252,8 +10779,24 @@
       <c r="F93">
         <v>81900</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>6707610000</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>66807959.399999999</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="10"/>
+        <v>1547910</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="11"/>
+        <v>146599362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>78.470699999999994</v>
       </c>
@@ -9272,8 +10815,24 @@
       <c r="F94">
         <v>82800</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>6855840000</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>67535654.400000006</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="10"/>
+        <v>1570716</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="11"/>
+        <v>148275756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>78.487300000000005</v>
       </c>
@@ -9292,8 +10851,24 @@
       <c r="F95">
         <v>83700</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>7005690000</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>68258772.900000006</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="10"/>
+        <v>1589462.9999999998</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="11"/>
+        <v>149995422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>77.653300000000002</v>
       </c>
@@ -9312,8 +10887,24 @@
       <c r="F96">
         <v>84600</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>7157160000</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>68989269.599999994</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="10"/>
+        <v>1607400</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="11"/>
+        <v>151642962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>78.0732</v>
       </c>
@@ -9332,8 +10923,24 @@
       <c r="F97">
         <v>85500</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>7310250000</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>69713707.5</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="10"/>
+        <v>1627920</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="11"/>
+        <v>153350235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>75.612300000000005</v>
       </c>
@@ -9352,8 +10959,24 @@
       <c r="F98">
         <v>86400</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <f t="shared" ref="G98:G129" si="12">F98*F98</f>
+        <v>7464960000</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ref="H98:H129" si="13">F98*B98</f>
+        <v>70448832</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" ref="I98:I129" si="14">F98*C98</f>
+        <v>1642464.0000000002</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" ref="J98:J129" si="15">F98*D98</f>
+        <v>154951488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>75.140600000000006</v>
       </c>
@@ -9368,10 +10991,26 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99">
-        <v>87300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>75.543899999999994</v>
       </c>
@@ -9386,10 +11025,26 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100">
-        <v>88200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>810000</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="13"/>
+        <v>733765.5</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="14"/>
+        <v>17172</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="15"/>
+        <v>1614834</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>75.974599999999995</v>
       </c>
@@ -9404,10 +11059,26 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101">
-        <v>89100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="12"/>
+        <v>3240000</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="13"/>
+        <v>1467525.6</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="14"/>
+        <v>34416</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" si="15"/>
+        <v>3229722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>75.178700000000006</v>
       </c>
@@ -9422,10 +11093,26 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2700</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="12"/>
+        <v>7290000</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="13"/>
+        <v>2201466.5999999996</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="14"/>
+        <v>51704.999999999993</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" si="15"/>
+        <v>4842828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>74.978499999999997</v>
       </c>
@@ -9440,10 +11127,26 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103">
-        <v>90900</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="12"/>
+        <v>12960000</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="13"/>
+        <v>2935288.8</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="14"/>
+        <v>68940</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="15"/>
+        <v>6457104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>74.633799999999994</v>
       </c>
@@ -9458,10 +11161,26 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104">
-        <v>91800</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="12"/>
+        <v>20250000</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="13"/>
+        <v>3669110.9999999995</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="14"/>
+        <v>86175</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="15"/>
+        <v>8071380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>74.978499999999997</v>
       </c>
@@ -9476,10 +11195,26 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105">
-        <v>92700</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="12"/>
+        <v>29160000</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="13"/>
+        <v>4402971</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="14"/>
+        <v>103409.99999999999</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="15"/>
+        <v>9685332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>75.476600000000005</v>
       </c>
@@ -9494,10 +11229,26 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106">
-        <v>93600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6300</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="12"/>
+        <v>39690000</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="13"/>
+        <v>5136673.5</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="14"/>
+        <v>120582</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="15"/>
+        <v>11300751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>74.605500000000006</v>
       </c>
@@ -9512,10 +11263,26 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107">
-        <v>94500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="12"/>
+        <v>51840000</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="13"/>
+        <v>5871729.6000000006</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="14"/>
+        <v>136584</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="15"/>
+        <v>12902760</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>74.275400000000005</v>
       </c>
@@ -9530,10 +11297,26 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108">
-        <v>95400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8100</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="12"/>
+        <v>65610000</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="13"/>
+        <v>6606011.7000000002</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="14"/>
+        <v>153900</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" si="15"/>
+        <v>14512446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>75.229500000000002</v>
       </c>
@@ -9548,10 +11331,26 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109">
-        <v>96300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9000</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="12"/>
+        <v>81000000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="13"/>
+        <v>7341534</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="14"/>
+        <v>172080</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="15"/>
+        <v>16109910</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>76.844700000000003</v>
       </c>
@@ -9566,10 +11365,26 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110">
-        <v>97200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9900</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="12"/>
+        <v>98010000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="13"/>
+        <v>8075182.5</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="14"/>
+        <v>188891.99999999997</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="15"/>
+        <v>17725950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>77.373000000000005</v>
       </c>
@@ -9584,10 +11399,26 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111">
-        <v>98100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10800</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="12"/>
+        <v>116640000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="13"/>
+        <v>8811558</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="14"/>
+        <v>207144</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="15"/>
+        <v>19314828</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>77.831999999999994</v>
       </c>
@@ -9602,10 +11433,26 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11700</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="12"/>
+        <v>136890000</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="13"/>
+        <v>9544813.2000000011</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="14"/>
+        <v>224523.00000000003</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="15"/>
+        <v>20934693</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>77.8994</v>
       </c>
@@ -9620,10 +11467,26 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113">
-        <v>99900</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12600</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="12"/>
+        <v>158760000</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="13"/>
+        <v>10279747.799999999</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="14"/>
+        <v>242676.00000000003</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="15"/>
+        <v>22537998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>78.373999999999995</v>
       </c>
@@ -9638,10 +11501,26 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13500</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="12"/>
+        <v>182250000</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="13"/>
+        <v>11017404</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="14"/>
+        <v>259739.99999999997</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="15"/>
+        <v>24114105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>77.616200000000006</v>
       </c>
@@ -9656,10 +11535,26 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115">
-        <v>101700</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14400</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="12"/>
+        <v>207360000</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="13"/>
+        <v>11753712</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="14"/>
+        <v>277920</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="15"/>
+        <v>25703856</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>78.2119</v>
       </c>
@@ -9674,10 +11569,26 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116">
-        <v>102600</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15300</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="12"/>
+        <v>234090000</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="13"/>
+        <v>12491149.5</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="14"/>
+        <v>294831</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" si="15"/>
+        <v>27282348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>78.349599999999995</v>
       </c>
@@ -9692,10 +11603,26 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117">
-        <v>103500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16200</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="12"/>
+        <v>262440000</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="13"/>
+        <v>13226360.4</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="14"/>
+        <v>310554</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="15"/>
+        <v>28882818</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>77.9268</v>
       </c>
@@ -9710,10 +11637,26 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118">
-        <v>104400</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17100</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="12"/>
+        <v>292410000</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="13"/>
+        <v>13963535.1</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="14"/>
+        <v>326781</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="15"/>
+        <v>30463821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>77.819299999999998</v>
       </c>
@@ -9728,10 +11671,26 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119">
-        <v>105300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18000</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="12"/>
+        <v>324000000</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="13"/>
+        <v>14698926</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="14"/>
+        <v>344340</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="15"/>
+        <v>32062500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>78.096699999999998</v>
       </c>
@@ -9746,10 +11705,26 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120">
-        <v>106200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18900</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="12"/>
+        <v>357210000</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="13"/>
+        <v>15434892.899999999</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="14"/>
+        <v>361557</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" si="15"/>
+        <v>33655419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>78.154300000000006</v>
       </c>
@@ -9764,10 +11739,26 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121">
-        <v>107100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19800</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="12"/>
+        <v>392040000</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="13"/>
+        <v>16172699.4</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="14"/>
+        <v>378774</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="15"/>
+        <v>35230140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>78.241200000000006</v>
       </c>
@@ -9782,10 +11773,26 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20700</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="12"/>
+        <v>428490000</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="13"/>
+        <v>16911361.800000001</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="14"/>
+        <v>395784</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="15"/>
+        <v>36796527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>78.215800000000002</v>
       </c>
@@ -9800,10 +11807,26 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123">
-        <v>108900</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21600</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="12"/>
+        <v>466560000</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="13"/>
+        <v>17649597.600000001</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="14"/>
+        <v>412560.00000000006</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="15"/>
+        <v>38367216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>78.834000000000003</v>
       </c>
@@ -9818,10 +11841,26 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124">
-        <v>109800</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22500</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="12"/>
+        <v>506250000</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="13"/>
+        <v>18384030</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="14"/>
+        <v>427950</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="15"/>
+        <v>39975300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>78.853499999999997</v>
       </c>
@@ -9836,10 +11875,26 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125">
-        <v>110700</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23400</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="12"/>
+        <v>547560000</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="13"/>
+        <v>19122012</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="14"/>
+        <v>446003.99999999994</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="15"/>
+        <v>41548104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>79.054699999999997</v>
       </c>
@@ -9854,10 +11909,26 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126">
-        <v>111600</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24300</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="12"/>
+        <v>590490000</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="13"/>
+        <v>19858446</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="14"/>
+        <v>463643.99999999994</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="15"/>
+        <v>43136631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>78.848600000000005</v>
       </c>
@@ -9872,10 +11943,26 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127">
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25200</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="12"/>
+        <v>635040000</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="13"/>
+        <v>20592028.800000001</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="14"/>
+        <v>481320.00000000006</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="15"/>
+        <v>44753184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>78.603499999999997</v>
       </c>
@@ -9890,10 +11977,26 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128">
-        <v>113400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26100</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="12"/>
+        <v>681210000</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="13"/>
+        <v>21324300.300000001</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="14"/>
+        <v>498249</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="15"/>
+        <v>46383093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>78.629900000000006</v>
       </c>
@@ -9908,10 +12011,26 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129">
-        <v>114300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27000</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="12"/>
+        <v>729000000</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="13"/>
+        <v>22059027</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="14"/>
+        <v>516240</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="15"/>
+        <v>47988180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>78.449200000000005</v>
       </c>
@@ -9926,10 +12045,26 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130">
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27900</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ref="G130:G161" si="16">F130*F130</f>
+        <v>778410000</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ref="H130:H161" si="17">F130*B130</f>
+        <v>22792849.199999999</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" ref="I130:I161" si="18">F130*C130</f>
+        <v>532890</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" ref="J130:J161" si="19">F130*D130</f>
+        <v>49602573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>78.292000000000002</v>
       </c>
@@ -9944,10 +12079,26 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131">
-        <v>116100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28800</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="16"/>
+        <v>829440000</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="17"/>
+        <v>23531155.199999999</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="18"/>
+        <v>548064</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" si="19"/>
+        <v>51172416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>78.101600000000005</v>
       </c>
@@ -9962,10 +12113,26 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132">
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29700</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="16"/>
+        <v>882090000</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="17"/>
+        <v>24260474.699999999</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="18"/>
+        <v>564894</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="19"/>
+        <v>52831251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>78.053700000000006</v>
       </c>
@@ -9980,10 +12147,26 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133">
-        <v>117900</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30600</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="16"/>
+        <v>936360000</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="17"/>
+        <v>24988204.799999997</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="18"/>
+        <v>581400</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="19"/>
+        <v>54505944</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>78.3613</v>
       </c>
@@ -9998,10 +12181,26 @@
       </c>
       <c r="E134" s="1"/>
       <c r="F134">
-        <v>118800</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31500</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="16"/>
+        <v>992250000</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="17"/>
+        <v>25724695.5</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="18"/>
+        <v>597555</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="19"/>
+        <v>56093625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>78.367199999999997</v>
       </c>
@@ -10016,10 +12215,26 @@
       </c>
       <c r="E135" s="1"/>
       <c r="F135">
-        <v>119700</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32400</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="16"/>
+        <v>1049760000</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="17"/>
+        <v>26459751.600000001</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="18"/>
+        <v>613980</v>
+      </c>
+      <c r="J135" s="1">
+        <f t="shared" si="19"/>
+        <v>57695976</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>78.283199999999994</v>
       </c>
@@ -10034,10 +12249,26 @@
       </c>
       <c r="E136" s="1"/>
       <c r="F136">
-        <v>120600</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33300</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="16"/>
+        <v>1108890000</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="17"/>
+        <v>27195044.399999999</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="18"/>
+        <v>630036</v>
+      </c>
+      <c r="J136" s="1">
+        <f t="shared" si="19"/>
+        <v>59295645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>78.2988</v>
       </c>
@@ -10052,10 +12283,26 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137">
-        <v>121500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34200</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="16"/>
+        <v>1169640000</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="17"/>
+        <v>27926625.599999998</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="18"/>
+        <v>645696</v>
+      </c>
+      <c r="J137" s="1">
+        <f t="shared" si="19"/>
+        <v>60931746.000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>78.095699999999994</v>
       </c>
@@ -10070,10 +12317,26 @@
       </c>
       <c r="E138" s="1"/>
       <c r="F138">
-        <v>122400</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35100</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="16"/>
+        <v>1232010000</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="17"/>
+        <v>28658728.800000001</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="18"/>
+        <v>661986</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" si="19"/>
+        <v>62563293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>78.137699999999995</v>
       </c>
@@ -10088,10 +12351,26 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139">
-        <v>123300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36000</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="16"/>
+        <v>1296000000</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="17"/>
+        <v>29388744</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="18"/>
+        <v>678240</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="19"/>
+        <v>64215360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>78.133799999999994</v>
       </c>
@@ -10106,10 +12385,26 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140">
-        <v>124200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36900</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="16"/>
+        <v>1361610000</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="17"/>
+        <v>30122503.199999999</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="18"/>
+        <v>694458</v>
+      </c>
+      <c r="J140" s="1">
+        <f t="shared" si="19"/>
+        <v>65829969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>78.105500000000006</v>
       </c>
@@ -10124,10 +12419,26 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141">
-        <v>125100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37800</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="16"/>
+        <v>1428840000</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="17"/>
+        <v>30851641.800000001</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="18"/>
+        <v>710262</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" si="19"/>
+        <v>67490766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>78.1143</v>
       </c>
@@ -10142,10 +12453,26 @@
       </c>
       <c r="E142" s="1"/>
       <c r="F142">
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38700</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="16"/>
+        <v>1497690000</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="17"/>
+        <v>31579161.300000001</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="18"/>
+        <v>726786</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="19"/>
+        <v>69167736</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>78.265600000000006</v>
       </c>
@@ -10160,10 +12487,26 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143">
-        <v>126900</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39600</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="16"/>
+        <v>1568160000</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="17"/>
+        <v>32316570</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="18"/>
+        <v>742500</v>
+      </c>
+      <c r="J143" s="1">
+        <f t="shared" si="19"/>
+        <v>70746192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>78.3232</v>
       </c>
@@ -10178,10 +12521,26 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144">
-        <v>127800</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40500</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="16"/>
+        <v>1640250000</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="17"/>
+        <v>33045408</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="18"/>
+        <v>757350</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" si="19"/>
+        <v>72410355</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>78.343800000000002</v>
       </c>
@@ -10196,10 +12555,26 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145">
-        <v>128700</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41400</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="16"/>
+        <v>1713960000</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="17"/>
+        <v>33776107.199999996</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="18"/>
+        <v>774180</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" si="19"/>
+        <v>74055492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>78.396500000000003</v>
       </c>
@@ -10214,10 +12589,26 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146">
-        <v>129600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42300</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="16"/>
+        <v>1789290000</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="17"/>
+        <v>34510158.899999999</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="18"/>
+        <v>789741.00000000012</v>
+      </c>
+      <c r="J146" s="1">
+        <f t="shared" si="19"/>
+        <v>75667509</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>78.193399999999997</v>
       </c>
@@ -10232,10 +12623,26 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147">
-        <v>130500</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43200</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="16"/>
+        <v>1866240000</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="17"/>
+        <v>35247096</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="18"/>
+        <v>806112</v>
+      </c>
+      <c r="J147" s="1">
+        <f t="shared" si="19"/>
+        <v>77251104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>78.199200000000005</v>
       </c>
@@ -10250,10 +12657,26 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148">
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44100</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="16"/>
+        <v>1944810000</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="17"/>
+        <v>35976118.5</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="18"/>
+        <v>821583</v>
+      </c>
+      <c r="J148" s="1">
+        <f t="shared" si="19"/>
+        <v>78912981</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>78.218800000000002</v>
       </c>
@@ -10268,10 +12691,26 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149">
-        <v>132300</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="16"/>
+        <v>2025000000</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="17"/>
+        <v>36705465</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="18"/>
+        <v>837450</v>
+      </c>
+      <c r="J149" s="1">
+        <f t="shared" si="19"/>
+        <v>80571150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>78.160200000000003</v>
       </c>
@@ -10286,10 +12725,26 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150">
-        <v>133200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45900</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="16"/>
+        <v>2106810000</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="17"/>
+        <v>37436223.600000001</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="18"/>
+        <v>853281</v>
+      </c>
+      <c r="J150" s="1">
+        <f t="shared" si="19"/>
+        <v>82216080</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>77.9756</v>
       </c>
@@ -10304,10 +12759,26 @@
       </c>
       <c r="E151" s="1"/>
       <c r="F151">
-        <v>134100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46800</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="16"/>
+        <v>2190240000</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="17"/>
+        <v>38175742.799999997</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="18"/>
+        <v>868607.99999999988</v>
+      </c>
+      <c r="J151" s="1">
+        <f t="shared" si="19"/>
+        <v>83773872</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>77.967799999999997</v>
       </c>
@@ -10322,10 +12793,26 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47700</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="16"/>
+        <v>2275290000</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="17"/>
+        <v>38911990.5</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="18"/>
+        <v>882927.00000000012</v>
+      </c>
+      <c r="J152" s="1">
+        <f t="shared" si="19"/>
+        <v>85363920</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>77.903300000000002</v>
       </c>
@@ -10340,10 +12827,26 @@
       </c>
       <c r="E153" s="1"/>
       <c r="F153">
-        <v>135900</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48600</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="16"/>
+        <v>2361960000</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="17"/>
+        <v>39657357</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" si="18"/>
+        <v>900072</v>
+      </c>
+      <c r="J153" s="1">
+        <f t="shared" si="19"/>
+        <v>86863752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>77.931600000000003</v>
       </c>
@@ -10358,10 +12861,26 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154">
-        <v>136800</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49500</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="16"/>
+        <v>2450250000</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="17"/>
+        <v>40394128.5</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="18"/>
+        <v>915254.99999999988</v>
+      </c>
+      <c r="J154" s="1">
+        <f t="shared" si="19"/>
+        <v>88448580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>77.883799999999994</v>
       </c>
@@ -10376,10 +12895,26 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155">
-        <v>137700</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50400</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="16"/>
+        <v>2540160000</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="17"/>
+        <v>41131692</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="18"/>
+        <v>931392</v>
+      </c>
+      <c r="J155" s="1">
+        <f t="shared" si="19"/>
+        <v>90025488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>77.945300000000003</v>
       </c>
@@ -10394,10 +12929,26 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156">
-        <v>138600</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51300</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="16"/>
+        <v>2631690000</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="17"/>
+        <v>41875010.100000001</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="18"/>
+        <v>945972.00000000012</v>
+      </c>
+      <c r="J156" s="1">
+        <f t="shared" si="19"/>
+        <v>91545876</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>77.917000000000002</v>
       </c>
@@ -10412,10 +12963,26 @@
       </c>
       <c r="E157" s="1"/>
       <c r="F157">
-        <v>139500</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52200</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="16"/>
+        <v>2724840000</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="17"/>
+        <v>42612948</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="18"/>
+        <v>961002</v>
+      </c>
+      <c r="J157" s="1">
+        <f t="shared" si="19"/>
+        <v>93119580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>77.879900000000006</v>
       </c>
@@ -10430,10 +12997,26 @@
       </c>
       <c r="E158" s="1"/>
       <c r="F158">
-        <v>140400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53100</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="16"/>
+        <v>2819610000</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="17"/>
+        <v>43353813.600000001</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="18"/>
+        <v>976509</v>
+      </c>
+      <c r="J158" s="1">
+        <f t="shared" si="19"/>
+        <v>94663494</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>77.853499999999997</v>
       </c>
@@ -10448,10 +13031,26 @@
       </c>
       <c r="E159" s="1"/>
       <c r="F159">
-        <v>141300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54000</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="16"/>
+        <v>2916000000</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="17"/>
+        <v>44098560</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="18"/>
+        <v>991440</v>
+      </c>
+      <c r="J159" s="1">
+        <f t="shared" si="19"/>
+        <v>96169680</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>77.930700000000002</v>
       </c>
@@ -10466,10 +13065,26 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160">
-        <v>142200</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54900</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="16"/>
+        <v>3014010000</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="17"/>
+        <v>44843253.299999997</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="18"/>
+        <v>1007415.0000000001</v>
+      </c>
+      <c r="J160" s="1">
+        <f t="shared" si="19"/>
+        <v>97675884</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>77.851600000000005</v>
       </c>
@@ -10484,10 +13099,26 @@
       </c>
       <c r="E161" s="1"/>
       <c r="F161">
-        <v>143100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55800</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="16"/>
+        <v>3113640000</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="17"/>
+        <v>45590162.399999999</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="18"/>
+        <v>1023930.0000000001</v>
+      </c>
+      <c r="J161" s="1">
+        <f t="shared" si="19"/>
+        <v>99161064</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>77.620099999999994</v>
       </c>
@@ -10502,10 +13133,26 @@
       </c>
       <c r="E162" s="1"/>
       <c r="F162">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56700</v>
+      </c>
+      <c r="G162">
+        <f t="shared" ref="G162:G193" si="20">F162*F162</f>
+        <v>3214890000</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ref="H162:H195" si="21">F162*B162</f>
+        <v>46330477.199999996</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" ref="I162:I195" si="22">F162*C162</f>
+        <v>1033641</v>
+      </c>
+      <c r="J162" s="1">
+        <f t="shared" ref="J162:J195" si="23">F162*D162</f>
+        <v>100710540</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>78.159199999999998</v>
       </c>
@@ -10520,10 +13167,26 @@
       </c>
       <c r="E163" s="1"/>
       <c r="F163">
-        <v>144900</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57600</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="20"/>
+        <v>3317760000</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="21"/>
+        <v>47073830.399999999</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="22"/>
+        <v>1033920</v>
+      </c>
+      <c r="J163" s="1">
+        <f t="shared" si="23"/>
+        <v>102230208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>77.957999999999998</v>
       </c>
@@ -10538,10 +13201,26 @@
       </c>
       <c r="E164" s="1"/>
       <c r="F164">
-        <v>145800</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58500</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="20"/>
+        <v>3422250000</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="21"/>
+        <v>47821644</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="22"/>
+        <v>1057680</v>
+      </c>
+      <c r="J164" s="1">
+        <f t="shared" si="23"/>
+        <v>103706460</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>78.367199999999997</v>
       </c>
@@ -10556,10 +13235,26 @@
       </c>
       <c r="E165" s="1"/>
       <c r="F165">
-        <v>146700</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59400</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="20"/>
+        <v>3528360000</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="21"/>
+        <v>48566390.399999999</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="22"/>
+        <v>1076922</v>
+      </c>
+      <c r="J165" s="1">
+        <f t="shared" si="23"/>
+        <v>105212250</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>79.453100000000006</v>
       </c>
@@ -10574,10 +13269,26 @@
       </c>
       <c r="E166" s="1"/>
       <c r="F166">
-        <v>147600</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60300</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="20"/>
+        <v>3636090000</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="21"/>
+        <v>49312013.399999999</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="22"/>
+        <v>1093239</v>
+      </c>
+      <c r="J166" s="1">
+        <f t="shared" si="23"/>
+        <v>106709292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>76.882800000000003</v>
       </c>
@@ -10592,10 +13303,26 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167">
-        <v>148500</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61200</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="20"/>
+        <v>3745440000</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="21"/>
+        <v>50050461.600000001</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="22"/>
+        <v>1110168</v>
+      </c>
+      <c r="J167" s="1">
+        <f t="shared" si="23"/>
+        <v>108277488</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>75.303700000000006</v>
       </c>
@@ -10610,10 +13337,26 @@
       </c>
       <c r="E168" s="1"/>
       <c r="F168">
-        <v>149400</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62100</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="20"/>
+        <v>3856410000</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="21"/>
+        <v>50804134.199999996</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="22"/>
+        <v>1120905</v>
+      </c>
+      <c r="J168" s="1">
+        <f t="shared" si="23"/>
+        <v>109695924</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>76.381799999999998</v>
       </c>
@@ -10628,10 +13371,26 @@
       </c>
       <c r="E169" s="1"/>
       <c r="F169">
-        <v>150300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63000</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="20"/>
+        <v>3969000000</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="21"/>
+        <v>51545466</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="22"/>
+        <v>1130220</v>
+      </c>
+      <c r="J169" s="1">
+        <f t="shared" si="23"/>
+        <v>111235320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>76.042000000000002</v>
       </c>
@@ -10646,10 +13405,26 @@
       </c>
       <c r="E170" s="1"/>
       <c r="F170">
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63900</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="20"/>
+        <v>4083210000</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="21"/>
+        <v>52290392.399999999</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="22"/>
+        <v>1147644</v>
+      </c>
+      <c r="J170" s="1">
+        <f t="shared" si="23"/>
+        <v>112739409</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>76.445300000000003</v>
       </c>
@@ -10664,10 +13439,26 @@
       </c>
       <c r="E171" s="1"/>
       <c r="F171">
-        <v>152100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64800</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="20"/>
+        <v>4199040000</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="21"/>
+        <v>53031866.399999999</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="22"/>
+        <v>1168992</v>
+      </c>
+      <c r="J171" s="1">
+        <f t="shared" si="23"/>
+        <v>114278688</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>76.684600000000003</v>
       </c>
@@ -10682,10 +13473,26 @@
       </c>
       <c r="E172" s="1"/>
       <c r="F172">
-        <v>153000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65700</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="20"/>
+        <v>4316490000</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="21"/>
+        <v>53762967</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" si="22"/>
+        <v>1187856</v>
+      </c>
+      <c r="J172" s="1">
+        <f t="shared" si="23"/>
+        <v>115919766</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>77.733400000000003</v>
       </c>
@@ -10700,10 +13507,26 @@
       </c>
       <c r="E173" s="1"/>
       <c r="F173">
-        <v>153900</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66600</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="20"/>
+        <v>4435560000</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="21"/>
+        <v>54504640.800000004</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="22"/>
+        <v>1206792</v>
+      </c>
+      <c r="J173" s="1">
+        <f t="shared" si="23"/>
+        <v>117455760</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>78.909199999999998</v>
       </c>
@@ -10718,10 +13541,26 @@
       </c>
       <c r="E174" s="1"/>
       <c r="F174">
-        <v>154800</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67500</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="20"/>
+        <v>4556250000</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="21"/>
+        <v>55246455</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" si="22"/>
+        <v>1227150</v>
+      </c>
+      <c r="J174" s="1">
+        <f t="shared" si="23"/>
+        <v>118991025</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>80.466800000000006</v>
       </c>
@@ -10736,10 +13575,26 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175">
-        <v>155700</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68400</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="20"/>
+        <v>4678560000</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="21"/>
+        <v>55981090.800000004</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="22"/>
+        <v>1246248</v>
+      </c>
+      <c r="J175" s="1">
+        <f t="shared" si="23"/>
+        <v>120597407.99999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>81.042000000000002</v>
       </c>
@@ -10754,10 +13609,26 @@
       </c>
       <c r="E176" s="1"/>
       <c r="F176">
-        <v>156600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69300</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="20"/>
+        <v>4802490000</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="21"/>
+        <v>56713179.599999994</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" si="22"/>
+        <v>1266804</v>
+      </c>
+      <c r="J176" s="1">
+        <f t="shared" si="23"/>
+        <v>122228568</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>81.172899999999998</v>
       </c>
@@ -10772,10 +13643,26 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177">
-        <v>157500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70200</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="20"/>
+        <v>4928040000</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="21"/>
+        <v>57438622.800000004</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" si="22"/>
+        <v>1286064</v>
+      </c>
+      <c r="J177" s="1">
+        <f t="shared" si="23"/>
+        <v>123926166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>80.757800000000003</v>
       </c>
@@ -10790,10 +13677,26 @@
       </c>
       <c r="E178" s="1"/>
       <c r="F178">
-        <v>158400</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71100</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="20"/>
+        <v>5055210000</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="21"/>
+        <v>58173948.899999999</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" si="22"/>
+        <v>1304685</v>
+      </c>
+      <c r="J178" s="1">
+        <f t="shared" si="23"/>
+        <v>125525628</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>80.366200000000006</v>
       </c>
@@ -10808,10 +13711,26 @@
       </c>
       <c r="E179" s="1"/>
       <c r="F179">
-        <v>159300</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72000</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="20"/>
+        <v>5184000000</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="21"/>
+        <v>58884768</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" si="22"/>
+        <v>1324800</v>
+      </c>
+      <c r="J179" s="1">
+        <f t="shared" si="23"/>
+        <v>127367280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>79.694299999999998</v>
       </c>
@@ -10826,10 +13745,26 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180">
-        <v>160200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72900</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="20"/>
+        <v>5314410000</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="21"/>
+        <v>59619296.699999996</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" si="22"/>
+        <v>1342818.0000000002</v>
+      </c>
+      <c r="J180" s="1">
+        <f t="shared" si="23"/>
+        <v>128974680</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>80.427700000000002</v>
       </c>
@@ -10844,10 +13779,26 @@
       </c>
       <c r="E181" s="1"/>
       <c r="F181">
-        <v>161100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73800</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="20"/>
+        <v>5446440000</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="21"/>
+        <v>60334747.199999996</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="22"/>
+        <v>1360872</v>
+      </c>
+      <c r="J181" s="1">
+        <f t="shared" si="23"/>
+        <v>130770648</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>80.596699999999998</v>
       </c>
@@ -10862,10 +13813,26 @@
       </c>
       <c r="E182" s="1"/>
       <c r="F182">
-        <v>162000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74700</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="20"/>
+        <v>5580090000</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="21"/>
+        <v>61061572.799999997</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" si="22"/>
+        <v>1382697.0000000002</v>
+      </c>
+      <c r="J182" s="1">
+        <f t="shared" si="23"/>
+        <v>132454305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>81.140600000000006</v>
       </c>
@@ -10880,10 +13847,26 @@
       </c>
       <c r="E183" s="1"/>
       <c r="F183">
-        <v>162900</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75600</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="20"/>
+        <v>5715360000</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="21"/>
+        <v>61787275.200000003</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="22"/>
+        <v>1404647.9999999998</v>
+      </c>
+      <c r="J183" s="1">
+        <f t="shared" si="23"/>
+        <v>134149176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>81.747100000000003</v>
       </c>
@@ -10898,10 +13881,26 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184">
-        <v>163800</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76500</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="20"/>
+        <v>5852250000</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="21"/>
+        <v>62512281</v>
+      </c>
+      <c r="I184" s="1">
+        <f t="shared" si="22"/>
+        <v>1424430</v>
+      </c>
+      <c r="J184" s="1">
+        <f t="shared" si="23"/>
+        <v>135850995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>81.766599999999997</v>
       </c>
@@ -10916,10 +13915,26 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185">
-        <v>164700</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77400</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="20"/>
+        <v>5990760000</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="21"/>
+        <v>63225428.399999999</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="22"/>
+        <v>1445058.0000000002</v>
+      </c>
+      <c r="J185" s="1">
+        <f t="shared" si="23"/>
+        <v>137669832</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>81.713899999999995</v>
       </c>
@@ -10934,10 +13949,26 @@
       </c>
       <c r="E186" s="1"/>
       <c r="F186">
-        <v>165600</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78300</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="20"/>
+        <v>6130890000</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="21"/>
+        <v>63954970.199999996</v>
+      </c>
+      <c r="I186" s="1">
+        <f t="shared" si="22"/>
+        <v>1467341.9999999998</v>
+      </c>
+      <c r="J186" s="1">
+        <f t="shared" si="23"/>
+        <v>139327020</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>82.293000000000006</v>
       </c>
@@ -10952,10 +13983,26 @@
       </c>
       <c r="E187" s="1"/>
       <c r="F187">
-        <v>166500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79200</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="20"/>
+        <v>6272640000</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="21"/>
+        <v>64669334.400000006</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="22"/>
+        <v>1489752</v>
+      </c>
+      <c r="J187" s="1">
+        <f t="shared" si="23"/>
+        <v>141133608</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>82.571299999999994</v>
       </c>
@@ -10970,10 +14017,26 @@
       </c>
       <c r="E188" s="1"/>
       <c r="F188">
-        <v>167400</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80100</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="20"/>
+        <v>6416010000</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="21"/>
+        <v>65389715.100000001</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="22"/>
+        <v>1512288</v>
+      </c>
+      <c r="J188" s="1">
+        <f t="shared" si="23"/>
+        <v>142880778</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>82.729500000000002</v>
       </c>
@@ -10988,10 +14051,26 @@
       </c>
       <c r="E189" s="1"/>
       <c r="F189">
-        <v>168300</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81000</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="20"/>
+        <v>6561000000</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="21"/>
+        <v>66109851.000000007</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="22"/>
+        <v>1534950</v>
+      </c>
+      <c r="J189" s="1">
+        <f t="shared" si="23"/>
+        <v>144631980</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>82.715800000000002</v>
       </c>
@@ -11006,10 +14085,26 @@
       </c>
       <c r="E190" s="1"/>
       <c r="F190">
-        <v>169200</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81900</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="20"/>
+        <v>6707610000</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="21"/>
+        <v>66835232.099999994</v>
+      </c>
+      <c r="I190" s="1">
+        <f t="shared" si="22"/>
+        <v>1555280.9999999998</v>
+      </c>
+      <c r="J190" s="1">
+        <f t="shared" si="23"/>
+        <v>146329092</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>82.859399999999994</v>
       </c>
@@ -11024,10 +14119,26 @@
       </c>
       <c r="E191" s="1"/>
       <c r="F191">
-        <v>170100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82800</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="20"/>
+        <v>6855840000</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="21"/>
+        <v>67553704.799999997</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="22"/>
+        <v>1577340</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="23"/>
+        <v>148096080</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>82.922899999999998</v>
       </c>
@@ -11042,10 +14153,26 @@
       </c>
       <c r="E192" s="1"/>
       <c r="F192">
-        <v>171000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83700</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="20"/>
+        <v>7005690000</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="21"/>
+        <v>68280953.400000006</v>
+      </c>
+      <c r="I192" s="1">
+        <f t="shared" si="22"/>
+        <v>1598670.0000000002</v>
+      </c>
+      <c r="J192" s="1">
+        <f t="shared" si="23"/>
+        <v>149775291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>82.764600000000002</v>
       </c>
@@ -11060,10 +14187,26 @@
       </c>
       <c r="E193" s="1"/>
       <c r="F193">
-        <v>171900</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84600</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="20"/>
+        <v>7157160000</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="21"/>
+        <v>69009658.200000003</v>
+      </c>
+      <c r="I193" s="1">
+        <f t="shared" si="22"/>
+        <v>1620089.9999999998</v>
+      </c>
+      <c r="J193" s="1">
+        <f t="shared" si="23"/>
+        <v>151440768</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>83.307599999999994</v>
       </c>
@@ -11078,10 +14221,26 @@
       </c>
       <c r="E194" s="1"/>
       <c r="F194">
-        <v>172800</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85500</v>
+      </c>
+      <c r="G194">
+        <f t="shared" ref="G194:G225" si="24">F194*F194</f>
+        <v>7310250000</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="21"/>
+        <v>69745257</v>
+      </c>
+      <c r="I194" s="1">
+        <f t="shared" si="22"/>
+        <v>1642455</v>
+      </c>
+      <c r="J194" s="1">
+        <f t="shared" si="23"/>
+        <v>153037305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>83.209000000000003</v>
       </c>
@@ -11096,7 +14255,89 @@
       </c>
       <c r="E195" s="1"/>
       <c r="F195">
-        <v>173700</v>
+        <v>86400</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="24"/>
+        <v>7464960000</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="21"/>
+        <v>70467321.600000009</v>
+      </c>
+      <c r="I195" s="1">
+        <f t="shared" si="22"/>
+        <v>1664928</v>
+      </c>
+      <c r="J195" s="1">
+        <f t="shared" si="23"/>
+        <v>154768320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f>SUBTOTAL(109,_dia1[Column1])</f>
+        <v>15025.084999999995</v>
+      </c>
+      <c r="B196">
+        <f>SUBTOTAL(109,_dia1[Column2])</f>
+        <v>158436.44600000005</v>
+      </c>
+      <c r="C196">
+        <f>SUBTOTAL(109,_dia1[Column3])</f>
+        <v>3642.6700000000005</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196">
+        <f>SUBTOTAL(109,_dia1[Column6])</f>
+        <v>8380800</v>
+      </c>
+      <c r="G196">
+        <f>SUBTOTAL(109,_dia1[Column7])</f>
+        <v>485248320000</v>
+      </c>
+      <c r="H196">
+        <f>SUBTOTAL(109,_dia1[Column8])</f>
+        <v>6845210541</v>
+      </c>
+      <c r="I196">
+        <f>SUBTOTAL(109,_dia1[Column9])</f>
+        <v>155961693</v>
+      </c>
+      <c r="J196">
+        <f>SUBTOTAL(109,_dia1[Column10])</f>
+        <v>14914534059</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F197" t="s">
+        <v>202</v>
+      </c>
+      <c r="G197" t="s">
+        <v>201</v>
+      </c>
+      <c r="H197" t="s">
+        <v>206</v>
+      </c>
+      <c r="I197" t="s">
+        <v>207</v>
+      </c>
+      <c r="J197" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f>(((194*H196)-(F196*A196))/((194*G196)-(A196*A196)))</f>
+        <v>1.2769012220372829E-2</v>
+      </c>
+      <c r="B198">
+        <f>(((194*I196)-(F196*B196))/((194*G196)-(B196*B196)))</f>
+        <v>-1.3787325936750468E-2</v>
+      </c>
+      <c r="C198">
+        <f>(((194*J196)-(F196*C196))/((194*G196)-(C196*C196)))</f>
+        <v>3.0411589668287133E-2</v>
       </c>
     </row>
   </sheetData>
